--- a/output/output_all.xlsx
+++ b/output/output_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greatknee\Desktop\Mortality\Reproducibility\Replication_SWVAR\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E63A5-59E3-460D-A0A2-E216E5E5491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5ACB1C-6445-4D2F-A774-2726DF9E8F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="252" windowWidth="10632" windowHeight="9216" xr2:uid="{4EE9C5AA-2708-4A10-A12D-6E3320B9F750}"/>
+    <workbookView xWindow="648" yWindow="1476" windowWidth="10632" windowHeight="9216" firstSheet="1" activeTab="4" xr2:uid="{4EE9C5AA-2708-4A10-A12D-6E3320B9F750}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04FBBE7-9D90-4D94-B617-2E0538E89646}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2291,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FA5301-5DF1-43E6-8F26-DF34CAAEEB46}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
